--- a/regions/4/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
+++ b/regions/4/biznes seqtori/saqmianobis mikhedvit_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553B94E3-C00D-4B3F-BC3D-11DBF737F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +16,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
-  <si>
-    <t>ბიზენს სექტორი</t>
-  </si>
   <si>
     <t>აჭარა</t>
   </si>
@@ -87,11 +85,14 @@
   <si>
     <t>გამოშვებული პროდუქცია აჭარის რეგიონში, ეკონომიკური საქმიანობის სახეების (NACE rev.2) მიხედვით, მლნ. ლარი</t>
   </si>
+  <si>
+    <t>ბიზნეს სექტორი</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#_);\(#\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -326,6 +327,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -361,6 +379,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -536,11 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -553,32 +588,32 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2006</v>
@@ -625,10 +660,16 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7">
         <v>728.5</v>
@@ -675,10 +716,16 @@
       <c r="P6" s="8">
         <v>5593.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8">
+        <v>7484.5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>10985.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10">
         <v>1.6</v>
@@ -725,10 +772,16 @@
       <c r="P7" s="12">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="12">
+        <v>4.7</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="10">
         <v>1.9</v>
@@ -775,10 +828,16 @@
       <c r="P8" s="12">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="12">
+        <v>22.8</v>
+      </c>
+      <c r="R8" s="12">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="10">
         <v>53.4</v>
@@ -825,10 +884,16 @@
       <c r="P9" s="12">
         <v>597.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q9" s="12">
+        <v>841.6</v>
+      </c>
+      <c r="R9" s="12">
+        <v>957.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="10">
         <v>40.799999999999997</v>
@@ -837,16 +902,16 @@
         <v>30.2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="11">
         <v>19.3</v>
@@ -858,13 +923,13 @@
         <v>26.8</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N10" s="12">
         <v>25.7</v>
@@ -875,10 +940,16 @@
       <c r="P10" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q10" s="12">
+        <v>91</v>
+      </c>
+      <c r="R10" s="12">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="10">
         <v>5.7</v>
@@ -887,16 +958,16 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="11">
         <v>8.5</v>
@@ -908,13 +979,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" s="11">
         <v>20</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11" s="12">
         <v>23.9</v>
@@ -925,10 +996,16 @@
       <c r="P11" s="12">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q11" s="12">
+        <v>31.5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="10">
         <v>94.2</v>
@@ -975,10 +1052,16 @@
       <c r="P12" s="12">
         <v>1085.4000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q12" s="12">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1476.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="10">
         <v>337</v>
@@ -1025,10 +1108,16 @@
       <c r="P13" s="12">
         <v>2504.3000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q13" s="12">
+        <v>2789.8</v>
+      </c>
+      <c r="R13" s="12">
+        <v>4079.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="10">
         <v>139.30000000000001</v>
@@ -1075,10 +1164,16 @@
       <c r="P14" s="12">
         <v>553.20000000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q14" s="12">
+        <v>722.8</v>
+      </c>
+      <c r="R14" s="12">
+        <v>1061.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="10">
         <v>14.2</v>
@@ -1125,10 +1220,16 @@
       <c r="P15" s="12">
         <v>168.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12">
+        <v>291.5</v>
+      </c>
+      <c r="R15" s="12">
+        <v>408.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="10">
         <v>6.3</v>
@@ -1175,10 +1276,16 @@
       <c r="P16" s="12">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R16" s="12">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10">
         <v>4.2</v>
@@ -1225,10 +1332,16 @@
       <c r="P17" s="12">
         <v>74.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12">
+        <v>175.7</v>
+      </c>
+      <c r="R17" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="10">
         <v>10</v>
@@ -1275,10 +1388,16 @@
       <c r="P18" s="12">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q18" s="12">
+        <v>94.4</v>
+      </c>
+      <c r="R18" s="12">
+        <v>106.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="10">
         <v>1.3</v>
@@ -1325,10 +1444,16 @@
       <c r="P19" s="12">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q19" s="12">
+        <v>30.2</v>
+      </c>
+      <c r="R19" s="12">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="10">
         <v>3.3</v>
@@ -1375,10 +1500,16 @@
       <c r="P20" s="12">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="12">
+        <v>26.3</v>
+      </c>
+      <c r="R20" s="12">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="10">
         <v>13.8</v>
@@ -1425,10 +1556,16 @@
       <c r="P21" s="12">
         <v>65.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12">
+        <v>90</v>
+      </c>
+      <c r="R21" s="12">
+        <v>109.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="10">
         <v>0.9</v>
@@ -1475,10 +1612,16 @@
       <c r="P22" s="12">
         <v>204.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12">
+        <v>1073.8</v>
+      </c>
+      <c r="R22" s="12">
+        <v>2155.3000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="10">
         <v>0.6</v>
@@ -1525,17 +1668,23 @@
       <c r="P23" s="12">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="12">
+        <v>11.9</v>
+      </c>
+      <c r="R23" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="5">
         <v>2006</v>
@@ -1582,10 +1731,16 @@
       <c r="P27" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="7">
         <v>405.3</v>
@@ -1632,10 +1787,16 @@
       <c r="P28" s="8">
         <v>3828.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q28" s="8">
+        <v>5258.3</v>
+      </c>
+      <c r="R28" s="8">
+        <v>6482.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="10">
         <v>1.1000000000000001</v>
@@ -1682,10 +1843,16 @@
       <c r="P29" s="12">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q29" s="12">
+        <v>6.1</v>
+      </c>
+      <c r="R29" s="12">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="10">
         <v>1.9</v>
@@ -1732,10 +1899,16 @@
       <c r="P30" s="12">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q30" s="12">
+        <v>23</v>
+      </c>
+      <c r="R30" s="12">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="10">
         <v>49.5</v>
@@ -1782,10 +1955,16 @@
       <c r="P31" s="12">
         <v>577.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12">
+        <v>810.7</v>
+      </c>
+      <c r="R31" s="12">
+        <v>931.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" s="10">
         <v>21</v>
@@ -1794,16 +1973,16 @@
         <v>22.1</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="11">
         <v>6.5</v>
@@ -1815,13 +1994,13 @@
         <v>13.9</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L32" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N32" s="12">
         <v>25.7</v>
@@ -1832,10 +2011,16 @@
       <c r="P32" s="12">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q32" s="12">
+        <v>91</v>
+      </c>
+      <c r="R32" s="12">
+        <v>168.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="10">
         <v>5.7</v>
@@ -1844,16 +2029,16 @@
         <v>9.4</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H33" s="11">
         <v>8.5</v>
@@ -1865,13 +2050,13 @@
         <v>10</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" s="11">
         <v>20.2</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N33" s="12">
         <v>25.9</v>
@@ -1882,10 +2067,16 @@
       <c r="P33" s="12">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q33" s="12">
+        <v>34.5</v>
+      </c>
+      <c r="R33" s="12">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="10">
         <v>94.1</v>
@@ -1932,10 +2123,16 @@
       <c r="P34" s="12">
         <v>1314.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q34" s="12">
+        <v>1557</v>
+      </c>
+      <c r="R34" s="12">
+        <v>1931.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="10">
         <v>36</v>
@@ -1982,10 +2179,16 @@
       <c r="P35" s="12">
         <v>441.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q35" s="12">
+        <v>533.1</v>
+      </c>
+      <c r="R35" s="12">
+        <v>726.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="10">
         <v>139.19999999999999</v>
@@ -2032,10 +2235,16 @@
       <c r="P36" s="12">
         <v>606.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q36" s="12">
+        <v>726.7</v>
+      </c>
+      <c r="R36" s="12">
+        <v>1042.4000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="10">
         <v>14.3</v>
@@ -2082,10 +2291,16 @@
       <c r="P37" s="12">
         <v>177.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q37" s="12">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="R37" s="12">
+        <v>430.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="10">
         <v>5.9</v>
@@ -2132,10 +2347,16 @@
       <c r="P38" s="12">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q38" s="12">
+        <v>14.8</v>
+      </c>
+      <c r="R38" s="12">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="10">
         <v>5</v>
@@ -2182,10 +2403,16 @@
       <c r="P39" s="12">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q39" s="12">
+        <v>176.6</v>
+      </c>
+      <c r="R39" s="12">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="10">
         <v>9.6</v>
@@ -2232,10 +2459,16 @@
       <c r="P40" s="12">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q40" s="12">
+        <v>94.3</v>
+      </c>
+      <c r="R40" s="12">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="10">
         <v>1.2</v>
@@ -2282,10 +2515,16 @@
       <c r="P41" s="12">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q41" s="12">
+        <v>19.2</v>
+      </c>
+      <c r="R41" s="12">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="10">
         <v>3.5</v>
@@ -2332,10 +2571,16 @@
       <c r="P42" s="12">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q42" s="12">
+        <v>27.5</v>
+      </c>
+      <c r="R42" s="12">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="10">
         <v>16</v>
@@ -2382,10 +2627,16 @@
       <c r="P43" s="12">
         <v>129.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q43" s="12">
+        <v>207.2</v>
+      </c>
+      <c r="R43" s="12">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="10">
         <v>0.8</v>
@@ -2432,10 +2683,16 @@
       <c r="P44" s="12">
         <v>170.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q44" s="12">
+        <v>641.6</v>
+      </c>
+      <c r="R44" s="12">
+        <v>513.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="10">
         <v>0.6</v>
@@ -2482,21 +2739,27 @@
       <c r="P45" s="12">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q45" s="12">
+        <v>14.1</v>
+      </c>
+      <c r="R45" s="12">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="5">
         <v>2006</v>
@@ -2543,10 +2806,16 @@
       <c r="P49" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="14">
         <v>32271</v>
@@ -2593,10 +2862,16 @@
       <c r="P50" s="15">
         <v>68089.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q50" s="15">
+        <v>72973</v>
+      </c>
+      <c r="R50" s="15">
+        <v>75232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="16">
         <v>198</v>
@@ -2643,10 +2918,16 @@
       <c r="P51" s="17">
         <v>229</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q51" s="17">
+        <v>234</v>
+      </c>
+      <c r="R51" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="16">
         <v>117</v>
@@ -2693,10 +2974,16 @@
       <c r="P52" s="17">
         <v>419.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q52" s="17">
+        <v>235</v>
+      </c>
+      <c r="R52" s="17">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="16">
         <v>3936</v>
@@ -2743,10 +3030,16 @@
       <c r="P53" s="17">
         <v>8758.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q53" s="17">
+        <v>9931</v>
+      </c>
+      <c r="R53" s="17">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="16">
         <v>1512</v>
@@ -2755,16 +3048,16 @@
         <v>806</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H54" s="16">
         <v>254</v>
@@ -2776,13 +3069,13 @@
         <v>207</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L54" s="16">
         <v>35</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N54" s="17">
         <v>131</v>
@@ -2793,10 +3086,16 @@
       <c r="P54" s="17">
         <v>189.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q54" s="17">
+        <v>184</v>
+      </c>
+      <c r="R54" s="17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="16">
         <v>1161</v>
@@ -2805,16 +3104,16 @@
         <v>855</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H55" s="16">
         <v>620</v>
@@ -2826,13 +3125,13 @@
         <v>524</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L55" s="16">
         <v>1265</v>
       </c>
       <c r="M55" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N55" s="17">
         <v>1423</v>
@@ -2843,10 +3142,16 @@
       <c r="P55" s="17">
         <v>1592</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q55" s="17">
+        <v>1699</v>
+      </c>
+      <c r="R55" s="17">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="16">
         <v>4951</v>
@@ -2893,10 +3198,16 @@
       <c r="P56" s="17">
         <v>10398</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q56" s="17">
+        <v>10543</v>
+      </c>
+      <c r="R56" s="17">
+        <v>11015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="16">
         <v>4682</v>
@@ -2943,10 +3254,16 @@
       <c r="P57" s="17">
         <v>14355.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q57" s="17">
+        <v>17121</v>
+      </c>
+      <c r="R57" s="17">
+        <v>17420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="16">
         <v>4194</v>
@@ -2993,10 +3310,16 @@
       <c r="P58" s="17">
         <v>7569.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q58" s="17">
+        <v>7841</v>
+      </c>
+      <c r="R58" s="17">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="16">
         <v>2209</v>
@@ -3043,10 +3366,16 @@
       <c r="P59" s="17">
         <v>5326.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q59" s="17">
+        <v>5340</v>
+      </c>
+      <c r="R59" s="17">
+        <v>5458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="16">
         <v>927</v>
@@ -3093,10 +3422,16 @@
       <c r="P60" s="17">
         <v>496</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q60" s="17">
+        <v>501</v>
+      </c>
+      <c r="R60" s="17">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61" s="16">
         <v>846</v>
@@ -3143,10 +3478,16 @@
       <c r="P61" s="17">
         <v>1608</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q61" s="17">
+        <v>1671</v>
+      </c>
+      <c r="R61" s="17">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62" s="16">
         <v>899</v>
@@ -3193,10 +3534,16 @@
       <c r="P62" s="17">
         <v>1840.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q62" s="17">
+        <v>2079</v>
+      </c>
+      <c r="R62" s="17">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63" s="16">
         <v>189</v>
@@ -3243,10 +3590,16 @@
       <c r="P63" s="17">
         <v>1124</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q63" s="17">
+        <v>576</v>
+      </c>
+      <c r="R63" s="17">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64" s="16">
         <v>1224</v>
@@ -3293,10 +3646,16 @@
       <c r="P64" s="17">
         <v>2004.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q64" s="17">
+        <v>2033</v>
+      </c>
+      <c r="R64" s="17">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="16">
         <v>4863</v>
@@ -3343,10 +3702,16 @@
       <c r="P65" s="17">
         <v>6813</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q65" s="17">
+        <v>6869</v>
+      </c>
+      <c r="R65" s="17">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="16">
         <v>132</v>
@@ -3393,10 +3758,16 @@
       <c r="P66" s="17">
         <v>4484.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q66" s="17">
+        <v>5062</v>
+      </c>
+      <c r="R66" s="17">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="16">
         <v>231</v>
@@ -3443,8 +3814,14 @@
       <c r="P67" s="16">
         <v>881.8</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="16">
+        <v>1055</v>
+      </c>
+      <c r="R67" s="17">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
@@ -3458,19 +3835,19 @@
       <c r="L68" s="18"/>
       <c r="M68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="5">
         <v>2006</v>
@@ -3517,10 +3894,16 @@
       <c r="P71" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="Q71" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="7">
         <v>219.9</v>
@@ -3567,10 +3950,16 @@
       <c r="P72" s="8">
         <v>995.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q72" s="8">
+        <v>1080.5999999999999</v>
+      </c>
+      <c r="R72" s="8">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" s="10">
         <v>83.6</v>
@@ -3617,10 +4006,16 @@
       <c r="P73" s="12">
         <v>201.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q73" s="12">
+        <v>384.7</v>
+      </c>
+      <c r="R73" s="12">
+        <v>520.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" s="10">
         <v>257</v>
@@ -3667,10 +4062,16 @@
       <c r="P74" s="12">
         <v>999</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q74" s="12">
+        <v>902.6</v>
+      </c>
+      <c r="R74" s="12">
+        <v>1509.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="10">
         <v>158.4</v>
@@ -3717,10 +4118,16 @@
       <c r="P75" s="12">
         <v>744</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q75" s="12">
+        <v>816</v>
+      </c>
+      <c r="R75" s="12">
+        <v>1014.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="10">
         <v>385</v>
@@ -3729,16 +4136,16 @@
         <v>415.3</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H76" s="11">
         <v>496.5</v>
@@ -3750,13 +4157,13 @@
         <v>693.5</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L76" s="11">
         <v>678.8</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N76" s="12">
         <v>1855.9</v>
@@ -3767,10 +4174,16 @@
       <c r="P76" s="12">
         <v>3710.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q76" s="12">
+        <v>3569.8</v>
+      </c>
+      <c r="R76" s="12">
+        <v>5172.1000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="10">
         <v>148.19999999999999</v>
@@ -3779,16 +4192,16 @@
         <v>342.9</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H77" s="11">
         <v>495.2</v>
@@ -3800,13 +4213,13 @@
         <v>811.8</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L77" s="11">
         <v>747.8</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N77" s="12">
         <v>754.1</v>
@@ -3817,10 +4230,16 @@
       <c r="P77" s="12">
         <v>924.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q77" s="12">
+        <v>1035.2</v>
+      </c>
+      <c r="R77" s="12">
+        <v>1121.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" s="10">
         <v>310</v>
@@ -3867,10 +4286,16 @@
       <c r="P78" s="12">
         <v>1520</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q78" s="12">
+        <v>1647.3</v>
+      </c>
+      <c r="R78" s="12">
+        <v>1631.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" s="10">
         <v>144.6</v>
@@ -3917,10 +4342,16 @@
       <c r="P79" s="12">
         <v>634.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q79" s="12">
+        <v>657.6</v>
+      </c>
+      <c r="R79" s="12">
+        <v>845.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="10">
         <v>405.1</v>
@@ -3967,10 +4398,16 @@
       <c r="P80" s="12">
         <v>1166</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+      <c r="Q80" s="12">
+        <v>1319.7</v>
+      </c>
+      <c r="R80" s="12">
+        <v>1637.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" s="10">
         <v>96.2</v>
@@ -4017,10 +4454,16 @@
       <c r="P81" s="12">
         <v>790.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q81" s="12">
+        <v>831.4</v>
+      </c>
+      <c r="R81" s="12">
+        <v>1085.4000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10">
         <v>184.8</v>
@@ -4067,10 +4510,16 @@
       <c r="P82" s="12">
         <v>930.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q82" s="12">
+        <v>841.7</v>
+      </c>
+      <c r="R82" s="12">
+        <v>2100.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" s="10">
         <v>126.9</v>
@@ -4117,10 +4566,16 @@
       <c r="P83" s="12">
         <v>506.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q83" s="12">
+        <v>961.1</v>
+      </c>
+      <c r="R83" s="12">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" s="10">
         <v>369.6</v>
@@ -4167,10 +4622,16 @@
       <c r="P84" s="12">
         <v>1391</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q84" s="12">
+        <v>1408</v>
+      </c>
+      <c r="R84" s="12">
+        <v>1167.4000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="10">
         <v>119.9</v>
@@ -4217,10 +4678,16 @@
       <c r="P85" s="12">
         <v>805.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q85" s="12">
+        <v>692.7</v>
+      </c>
+      <c r="R85" s="12">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10">
         <v>109.3</v>
@@ -4267,10 +4734,16 @@
       <c r="P86" s="12">
         <v>529.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q86" s="12">
+        <v>735.2</v>
+      </c>
+      <c r="R86" s="12">
+        <v>772.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B87" s="10">
         <v>124.3</v>
@@ -4317,10 +4790,16 @@
       <c r="P87" s="12">
         <v>1012</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q87" s="12">
+        <v>1168.4000000000001</v>
+      </c>
+      <c r="R87" s="12">
+        <v>1241.4000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B88" s="10">
         <v>83</v>
@@ -4367,10 +4846,16 @@
       <c r="P88" s="12">
         <v>1447.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q88" s="12">
+        <v>1493.1</v>
+      </c>
+      <c r="R88" s="12">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" s="10">
         <v>69.8</v>
@@ -4416,6 +4901,12 @@
       </c>
       <c r="P89" s="12">
         <v>197.2</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>415.2</v>
+      </c>
+      <c r="R89" s="12">
+        <v>833.6</v>
       </c>
     </row>
   </sheetData>
